--- a/Opsagte aftaler 2023.xlsx
+++ b/Opsagte aftaler 2023.xlsx
@@ -7725,11 +7725,11 @@
         <v>45044.0</v>
       </c>
       <c r="H60" s="27">
-        <v>45412.0</v>
+        <v>45443.0</v>
       </c>
       <c r="I60" s="59" t="str">
         <f t="shared" si="1"/>
-        <v>202404</v>
+        <v>202405</v>
       </c>
       <c r="J60" s="29">
         <v>12.0</v>
@@ -32735,17 +32735,17 @@
   </sheetData>
   <autoFilter ref="$A$2:$T$163"/>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="P50">
+      <formula1>"DataLøn,ProLøn,Azets,Lessor,Danløn,Zenegy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="O3:O1022">
+      <formula1>"Bruger ikke produktet,Utilfredshed (Ventetid på telefon),Utilfredshed (Ventetid på sager),Utilfredshed (Service - uddyb i bemærkninger),Systemet (uddyb i bemærkninger),Fusionerer med anden virksomhed,Virksomheden lukker,Ikke flere medarbejdere i virksomhe"&amp;"den,Pris,Insourcing af lønnen (til Visma),Outsourcing af lønnen (til Visma),Insourcing af lønnen (anden leverandør),Outsourcing af lønnen (anden leverandør),Strategisk beslutning,Konkurs,Covid-19,Anden årsag (angiv hvilken i bemærkninger),Ikke oplyst"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="P3:P49 P51:P68 P70:P1022">
       <formula1>"DataLøn,ProLøn,Azets,Lessor,Danløn,Zenegy,Vil ikke oplyse"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P50">
-      <formula1>"DataLøn,ProLøn,Azets,Lessor,Danløn,Zenegy"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="N3:N1022">
       <formula1>"Win back,Churn - hel aftale,Insourcing,Outsourcing,Fortsætter under anden aftale,Konkurs,Churn - modul"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O3:O1022">
-      <formula1>"Bruger ikke produktet,Utilfredshed (Ventetid på telefon),Utilfredshed (Ventetid på sager),Utilfredshed (Service - uddyb i bemærkninger),Systemet (uddyb i bemærkninger),Fusionerer med anden virksomhed,Virksomheden lukker,Ikke flere medarbejdere i virksomhe"&amp;"den,Pris,Insourcing af lønnen (til Visma),Outsourcing af lønnen (til Visma),Insourcing af lønnen (anden leverandør),Outsourcing af lønnen (anden leverandør),Strategisk beslutning,Konkurs,Covid-19,Anden årsag (angiv hvilken i bemærkninger),Ikke oplyst"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -69896,17 +69896,17 @@
     </sortState>
   </autoFilter>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="P4:P41 P43:P1011">
+      <formula1>"DataLøn,ProLøn,Azets,Lessor,Danløn,Zenegy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="O3:O41 O43:O1011">
+      <formula1>"Bruger ikke produktet,Utilfredshed (Ventetid på telefon),Utilfredshed (Ventetid på sager),Utilfredshed (Service - uddyb i bemærkninger),Systemet (uddyb i bemærkninger),Fusionerer med anden virksomhed,Virksomheden lukker,Ikke flere medarbejdere i virksomhe"&amp;"den,Pris,Insourcing af lønnen (til Visma),Outsourcing af lønnen (til Visma),Insourcing af lønnen (anden leverandør),Outsourcing af lønnen (anden leverandør),Strategisk beslutning,Konkurs,Covid-19,Anden årsag (angiv hvilken i bemærkninger),Ikke oplyst"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="P3">
       <formula1>"DataLøn,ProLøn,Azets,Lessor,Danløn,Zenegy,Vil ikke oplyse"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P4:P41 P43:P1011">
-      <formula1>"DataLøn,ProLøn,Azets,Lessor,Danløn,Zenegy"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="N3:N41 N43:N1011">
       <formula1>"Win back,Churn - hel aftale,Insourcing,Outsourcing,Fortsætter under anden aftale,Konkurs,Churn - modul"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O3:O41 O43:O1011">
-      <formula1>"Bruger ikke produktet,Utilfredshed (Ventetid på telefon),Utilfredshed (Ventetid på sager),Utilfredshed (Service - uddyb i bemærkninger),Systemet (uddyb i bemærkninger),Fusionerer med anden virksomhed,Virksomheden lukker,Ikke flere medarbejdere i virksomhe"&amp;"den,Pris,Insourcing af lønnen (til Visma),Outsourcing af lønnen (til Visma),Insourcing af lønnen (anden leverandør),Outsourcing af lønnen (anden leverandør),Strategisk beslutning,Konkurs,Covid-19,Anden årsag (angiv hvilken i bemærkninger),Ikke oplyst"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -70370,11 +70370,11 @@
   </sheetData>
   <autoFilter ref="$D$1:$D$1000"/>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="H16">
+      <formula1>Churn!$H$12:$H$14</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B6:B20">
       <formula1>"Win back,Churn - hel aftale,Insourcing,Outsourcing,Fortsætter under anden aftale,Konkurs,Churn - modul"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H16">
-      <formula1>Churn!$H$12:$H$14</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
